--- a/10/3/Construcción 2003 a 2021 - Mensual.xlsx
+++ b/10/3/Construcción 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t>Serie</t>
   </si>
@@ -686,6 +686,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1046,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K214"/>
+  <dimension ref="A1:K215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8539,6 +8542,41 @@
         <v>43.4</v>
       </c>
     </row>
+    <row r="215" spans="1:11">
+      <c r="A215" t="s">
+        <v>224</v>
+      </c>
+      <c r="B215">
+        <v>40.9</v>
+      </c>
+      <c r="C215">
+        <v>49.2</v>
+      </c>
+      <c r="D215">
+        <v>44.7</v>
+      </c>
+      <c r="E215">
+        <v>72.7</v>
+      </c>
+      <c r="F215">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="G215">
+        <v>62.1</v>
+      </c>
+      <c r="H215">
+        <v>62.1</v>
+      </c>
+      <c r="I215">
+        <v>49.2</v>
+      </c>
+      <c r="J215">
+        <v>49.2</v>
+      </c>
+      <c r="K215">
+        <v>51.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10/3/Construcción 2003 a 2021 - Mensual.xlsx
+++ b/10/3/Construcción 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
   <si>
     <t>Serie</t>
   </si>
@@ -689,6 +689,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1049,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K215"/>
+  <dimension ref="A1:K216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8577,6 +8580,41 @@
         <v>51.5</v>
       </c>
     </row>
+    <row r="216" spans="1:11">
+      <c r="A216" t="s">
+        <v>225</v>
+      </c>
+      <c r="B216">
+        <v>49.2</v>
+      </c>
+      <c r="C216">
+        <v>59.1</v>
+      </c>
+      <c r="D216">
+        <v>52.3</v>
+      </c>
+      <c r="E216">
+        <v>77.3</v>
+      </c>
+      <c r="F216">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="G216">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="H216">
+        <v>63.6</v>
+      </c>
+      <c r="I216">
+        <v>46.2</v>
+      </c>
+      <c r="J216">
+        <v>53</v>
+      </c>
+      <c r="K216">
+        <v>56.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10/3/Construcción 2003 a 2021 - Mensual.xlsx
+++ b/10/3/Construcción 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
   <si>
     <t>Serie</t>
   </si>
@@ -692,6 +692,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1052,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K216"/>
+  <dimension ref="A1:K217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8615,6 +8618,41 @@
         <v>56.4</v>
       </c>
     </row>
+    <row r="217" spans="1:11">
+      <c r="A217" t="s">
+        <v>226</v>
+      </c>
+      <c r="B217">
+        <v>40.9</v>
+      </c>
+      <c r="C217">
+        <v>43.9</v>
+      </c>
+      <c r="D217">
+        <v>50</v>
+      </c>
+      <c r="E217">
+        <v>74.2</v>
+      </c>
+      <c r="F217">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="G217">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="H217">
+        <v>55.3</v>
+      </c>
+      <c r="I217">
+        <v>28</v>
+      </c>
+      <c r="J217">
+        <v>45.5</v>
+      </c>
+      <c r="K217">
+        <v>48.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
